--- a/GOv1.0_Gesture_action_definitions.xlsx
+++ b/GOv1.0_Gesture_action_definitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cvg1/Desktop/BRM_MethodsPaper/Submission files/Supplementary Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cvg1/Downloads/Firefox/Gestural_Origins_Coding-methods_paper-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE8762-3031-3B46-9282-2BF0A7B98A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C36F38-999A-4540-AD1F-2316E8AAE114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="4400" windowWidth="25600" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,9 +1310,6 @@
     <t>Prs</t>
   </si>
   <si>
-    <t>Rake_slf</t>
-  </si>
-  <si>
     <t>Rake_objgd</t>
   </si>
   <si>
@@ -1407,6 +1404,9 @@
   </si>
   <si>
     <t>End of contact with object.</t>
+  </si>
+  <si>
+    <t>Rake_self</t>
   </si>
 </sst>
 </file>
@@ -1916,10 +1916,10 @@
   <dimension ref="A1:S975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1</v>
@@ -2164,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="48" spans="1:19" ht="48">
       <c r="A48" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>220</v>
@@ -3714,13 +3714,13 @@
     </row>
     <row r="49" spans="1:19" ht="64">
       <c r="A49" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>220</v>
@@ -4087,7 +4087,7 @@
         <v>269</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>270</v>
@@ -4124,7 +4124,7 @@
         <v>274</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>275</v>
@@ -4198,7 +4198,7 @@
         <v>282</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>283</v>
@@ -4235,7 +4235,7 @@
         <v>287</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>288</v>
@@ -4272,7 +4272,7 @@
         <v>289</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>290</v>
@@ -4346,7 +4346,7 @@
         <v>300</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>301</v>
@@ -4420,7 +4420,7 @@
         <v>310</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>311</v>
@@ -4494,7 +4494,7 @@
         <v>320</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>321</v>
@@ -4531,7 +4531,7 @@
         <v>322</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>323</v>
@@ -4568,7 +4568,7 @@
         <v>324</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>325</v>
@@ -4605,7 +4605,7 @@
         <v>326</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>327</v>
@@ -4642,7 +4642,7 @@
         <v>331</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>332</v>
@@ -4679,7 +4679,7 @@
         <v>337</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>338</v>
@@ -4716,7 +4716,7 @@
         <v>343</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>344</v>
@@ -4827,7 +4827,7 @@
         <v>356</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>357</v>
@@ -4864,7 +4864,7 @@
         <v>361</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>362</v>
@@ -4938,7 +4938,7 @@
         <v>369</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>370</v>
@@ -4975,7 +4975,7 @@
         <v>374</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>375</v>
@@ -5009,22 +5009,22 @@
     </row>
     <row r="84" spans="1:19" ht="32">
       <c r="A84" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="D84" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C84" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="34" t="s">
         <v>458</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>459</v>
       </c>
       <c r="G84" s="34" t="s">
         <v>101</v>
@@ -5049,7 +5049,7 @@
         <v>377</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>378</v>
@@ -20216,7 +20216,7 @@
   <customSheetViews>
     <customSheetView guid="{4211B94B-54DC-45C0-826C-8E198CE4B443}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:H91" xr:uid="{D04F1FE1-7C4F-EC4C-BA4C-E01E9A523996}"/>
+      <autoFilter ref="A1:H91" xr:uid="{451E755D-B324-E245-9A98-AA5C39A881C8}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
